--- a/retailer/data/users.xlsx
+++ b/retailer/data/users.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>username</t>
   </si>
@@ -22,25 +28,34 @@
     <t>password</t>
   </si>
   <si>
-    <t>shop_name</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>business_type</t>
-  </si>
-  <si>
-    <t>gstin</t>
-  </si>
-  <si>
-    <t>fssai</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Balamurugan P</t>
+  </si>
+  <si>
+    <t>pbalamurugan260@gmail.com</t>
+  </si>
+  <si>
+    <t>scrypt:32768:8:1$jRMQhGjZfQjsGxAh$03dcb94582a542e229678299bd2956aea297a7965b779fef9158b2e721fc42959a7896c9de968381e6dee1ea2eeb6cc6a71f3cd01ac0a4a72065cd06959daf4d</t>
+  </si>
+  <si>
+    <t>dsd</t>
+  </si>
+  <si>
+    <t>retailer</t>
+  </si>
+  <si>
+    <t>2025-07-15 22:24:23</t>
   </si>
 </sst>
 </file>
@@ -398,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +444,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
